--- a/AutoCmdb/demo_files/部門/DEMO_部門.xlsx
+++ b/AutoCmdb/demo_files/部門/DEMO_部門.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="24">
   <si>
     <t>ID</t>
   </si>
@@ -44,9 +44,6 @@
     <t>HR</t>
   </si>
   <si>
-    <t>001(托尼)</t>
-  </si>
-  <si>
     <t>資訊</t>
   </si>
   <si>
@@ -90,15 +87,6 @@
   </si>
   <si>
     <t>OM</t>
-  </si>
-  <si>
-    <t>財務</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>M</t>
   </si>
 </sst>
 </file>
@@ -447,7 +435,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -480,7 +468,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C2" t="s">
         <v>6</v>
@@ -494,51 +482,47 @@
       <c r="F2" t="s">
         <v>8</v>
       </c>
-      <c r="G2" t="s">
-        <v>9</v>
-      </c>
+      <c r="G2" t="s"/>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" t="s">
         <v>10</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="n">
+        <v>3</v>
+      </c>
+      <c r="F3" t="s">
         <v>11</v>
       </c>
-      <c r="E3" t="n">
-        <v>3</v>
-      </c>
-      <c r="F3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G3" t="s">
-        <v>9</v>
-      </c>
+      <c r="G3" t="s"/>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" t="s">
         <v>13</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="n">
+        <v>3</v>
+      </c>
+      <c r="F4" t="s">
         <v>14</v>
-      </c>
-      <c r="E4" t="n">
-        <v>3</v>
-      </c>
-      <c r="F4" t="s">
-        <v>15</v>
       </c>
       <c r="G4" t="s"/>
     </row>
@@ -547,19 +531,19 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" t="s">
         <v>16</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="n">
+        <v>3</v>
+      </c>
+      <c r="F5" t="s">
         <v>17</v>
-      </c>
-      <c r="E5" t="n">
-        <v>3</v>
-      </c>
-      <c r="F5" t="s">
-        <v>18</v>
       </c>
       <c r="G5" t="s"/>
     </row>
@@ -568,19 +552,19 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="C6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" t="s">
         <v>19</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" t="n">
+        <v>3</v>
+      </c>
+      <c r="F6" t="s">
         <v>20</v>
-      </c>
-      <c r="E6" t="n">
-        <v>3</v>
-      </c>
-      <c r="F6" t="s">
-        <v>21</v>
       </c>
       <c r="G6" t="s"/>
     </row>
@@ -589,46 +573,21 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" t="s">
         <v>22</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E7" t="n">
+        <v>3</v>
+      </c>
+      <c r="F7" t="s">
         <v>23</v>
       </c>
-      <c r="E7" t="n">
-        <v>3</v>
-      </c>
-      <c r="F7" t="s">
-        <v>24</v>
-      </c>
-      <c r="G7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="n">
-        <v>10</v>
-      </c>
-      <c r="C8" t="s">
-        <v>25</v>
-      </c>
-      <c r="D8" t="s">
-        <v>26</v>
-      </c>
-      <c r="E8" t="n">
-        <v>3</v>
-      </c>
-      <c r="F8" t="s">
-        <v>27</v>
-      </c>
-      <c r="G8" t="s">
-        <v>9</v>
-      </c>
+      <c r="G7" t="s"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
